--- a/doc/基础数据V1.0.xlsx
+++ b/doc/基础数据V1.0.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sofar-测试平台-质量管理平台\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\sofar-测试平台-质量管理平台\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B22D2C84-2E71-40F6-9BF9-8EB3D3D93515}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC91C66A-A02B-4820-A3F0-F5608066EE74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{12C29574-0963-40F2-ACAA-B13D96E37E90}"/>
   </bookViews>
   <sheets>
     <sheet name="基础数据" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,32 +33,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="63">
   <si>
     <t>产品</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>锂电池储能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三相储能逆变器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单相储能逆变器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>车载电源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务器电源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>项目</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -75,14 +55,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3-12KW逆变器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>225KW逆变器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1-3KTL-G3</t>
   </si>
   <si>
@@ -157,6 +129,106 @@
   </si>
   <si>
     <t>测试平台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大光伏</t>
+  </si>
+  <si>
+    <t>系统集成</t>
+  </si>
+  <si>
+    <t>单相光储</t>
+  </si>
+  <si>
+    <t>三相光储</t>
+  </si>
+  <si>
+    <t>电池产品</t>
+  </si>
+  <si>
+    <t>数据中心通信电源</t>
+  </si>
+  <si>
+    <t>设计问题</t>
+  </si>
+  <si>
+    <t>设计问题-硬件</t>
+  </si>
+  <si>
+    <t>设计问题-产品软件</t>
+  </si>
+  <si>
+    <t>设计问题-生产测试</t>
+  </si>
+  <si>
+    <t>设计问题-结构</t>
+  </si>
+  <si>
+    <t>设计问题-工艺</t>
+  </si>
+  <si>
+    <t>设计问题-BOM</t>
+  </si>
+  <si>
+    <t>设计问题-器件</t>
+  </si>
+  <si>
+    <t>设计问题-包装</t>
+  </si>
+  <si>
+    <t>设计问题-治具</t>
+  </si>
+  <si>
+    <t>制程问题</t>
+  </si>
+  <si>
+    <t>制程问题-SMT</t>
+  </si>
+  <si>
+    <t>制程问题-DIP</t>
+  </si>
+  <si>
+    <t>制程问题-工艺</t>
+  </si>
+  <si>
+    <t>制程问题-设备</t>
+  </si>
+  <si>
+    <t>制程问题-装配</t>
+  </si>
+  <si>
+    <t>制程问题-包装</t>
+  </si>
+  <si>
+    <t>制程问题-测试</t>
+  </si>
+  <si>
+    <t>制程问题-治具</t>
+  </si>
+  <si>
+    <t>制程问题-作业</t>
+  </si>
+  <si>
+    <t>制程问题-管理</t>
+  </si>
+  <si>
+    <t>物料问题</t>
+  </si>
+  <si>
+    <t>物料问题-来料</t>
+  </si>
+  <si>
+    <t>物料问题-现场</t>
+  </si>
+  <si>
+    <t>物料问题-仓储</t>
+  </si>
+  <si>
+    <t>其它问题</t>
+  </si>
+  <si>
+    <t>问题类别：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -164,7 +236,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -186,13 +258,27 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线 Light"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -224,7 +310,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -238,6 +324,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -554,10 +646,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AD68C11-4B57-47FF-8344-E094A5CC49CD}">
-  <dimension ref="A2:F28"/>
+  <dimension ref="A2:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -572,170 +664,199 @@
     <col min="8" max="8" width="18.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="H2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H3" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="1">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="1">
         <v>1</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="1">
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="1">
         <v>2</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="1">
         <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="1">
         <v>3</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="1">
         <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="1">
         <v>4</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="1">
         <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="E8" s="1">
         <v>5</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="1">
         <v>6</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E9" s="1">
         <v>6</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="1">
         <v>7</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="E10" s="1">
         <v>7</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="1">
         <v>8</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="E11" s="1">
         <v>8</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
-      <c r="B12" s="1">
-        <v>9</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
       <c r="E12" s="1">
         <v>9</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -743,10 +864,13 @@
         <v>10</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -754,10 +878,13 @@
         <v>11</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -765,111 +892,153 @@
         <v>12</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E16" s="1">
         <v>13</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="5:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="5:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E17" s="1">
         <v>14</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="5:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="5:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E18" s="1">
         <v>15</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="5:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="5:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E19" s="1">
         <v>16</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="5:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="5:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E20" s="1">
         <v>17</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="5:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="5:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E21" s="1">
         <v>18</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="5:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="5:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E22" s="1">
         <v>19</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="5:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="5:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E23" s="1">
         <v>20</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24" spans="5:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="5:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E24" s="1">
         <v>21</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="5:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="5:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E25" s="1">
         <v>22</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="26" spans="5:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="5:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E26" s="1">
         <v>23</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="27" spans="5:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="5:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E27" s="1">
         <v>22</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="28" spans="5:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="5:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E28" s="1">
         <v>23</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/doc/基础数据V1.0.xlsx
+++ b/doc/基础数据V1.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\sofar-测试平台-质量管理平台\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC91C66A-A02B-4820-A3F0-F5608066EE74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C2E8259-EA1D-4BAA-A316-0B4EA3A23EAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{12C29574-0963-40F2-ACAA-B13D96E37E90}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="64">
   <si>
     <t>产品</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,180 +55,213 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试平台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计问题</t>
+  </si>
+  <si>
+    <t>设计问题-硬件</t>
+  </si>
+  <si>
+    <t>设计问题-产品软件</t>
+  </si>
+  <si>
+    <t>设计问题-生产测试</t>
+  </si>
+  <si>
+    <t>设计问题-结构</t>
+  </si>
+  <si>
+    <t>设计问题-工艺</t>
+  </si>
+  <si>
+    <t>设计问题-BOM</t>
+  </si>
+  <si>
+    <t>设计问题-器件</t>
+  </si>
+  <si>
+    <t>设计问题-包装</t>
+  </si>
+  <si>
+    <t>设计问题-治具</t>
+  </si>
+  <si>
+    <t>制程问题</t>
+  </si>
+  <si>
+    <t>制程问题-SMT</t>
+  </si>
+  <si>
+    <t>制程问题-DIP</t>
+  </si>
+  <si>
+    <t>制程问题-工艺</t>
+  </si>
+  <si>
+    <t>制程问题-设备</t>
+  </si>
+  <si>
+    <t>制程问题-装配</t>
+  </si>
+  <si>
+    <t>制程问题-包装</t>
+  </si>
+  <si>
+    <t>制程问题-测试</t>
+  </si>
+  <si>
+    <t>制程问题-治具</t>
+  </si>
+  <si>
+    <t>制程问题-作业</t>
+  </si>
+  <si>
+    <t>制程问题-管理</t>
+  </si>
+  <si>
+    <t>物料问题</t>
+  </si>
+  <si>
+    <t>物料问题-来料</t>
+  </si>
+  <si>
+    <t>物料问题-现场</t>
+  </si>
+  <si>
+    <t>物料问题-仓储</t>
+  </si>
+  <si>
+    <t>其它问题</t>
+  </si>
+  <si>
+    <t>问题类别：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大光伏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统集成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单相光储</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三相光储</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电池产品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车载产品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据中心通信电源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>1-3KTL-G3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>3-6KTLM-G3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>3-6KTL-G2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>7.5KTLM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>7-10.5KTLM-G3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>HYD 3-6K-ES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>HYD 3-6K-EP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>HYD 3-6K-HV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ME 3000SP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>3-12KTL-X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>3-12KTLX-G3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>15-24KTLX-G3(3-20K)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>10-15KTL-G2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>20-33KTL-G2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>30-40KTL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>25-50KTLX-G3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>50-70KTL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>60-80KTLX-G3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>75-136KTLX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80-110KTL-PRO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100-136KTL-HV-PRO250-255KTL-HV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ME 5-20kTL-3PH()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>HYD 5-20KTL-3PH（EAHV）</t>
-  </si>
-  <si>
-    <t>80-110KTL-PRO</t>
-  </si>
-  <si>
-    <t>100-136KTL-HV-PRO250-255KTL-HV</t>
-  </si>
-  <si>
-    <t>序号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试平台</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大光伏</t>
-  </si>
-  <si>
-    <t>系统集成</t>
-  </si>
-  <si>
-    <t>单相光储</t>
-  </si>
-  <si>
-    <t>三相光储</t>
-  </si>
-  <si>
-    <t>电池产品</t>
-  </si>
-  <si>
-    <t>数据中心通信电源</t>
-  </si>
-  <si>
-    <t>设计问题</t>
-  </si>
-  <si>
-    <t>设计问题-硬件</t>
-  </si>
-  <si>
-    <t>设计问题-产品软件</t>
-  </si>
-  <si>
-    <t>设计问题-生产测试</t>
-  </si>
-  <si>
-    <t>设计问题-结构</t>
-  </si>
-  <si>
-    <t>设计问题-工艺</t>
-  </si>
-  <si>
-    <t>设计问题-BOM</t>
-  </si>
-  <si>
-    <t>设计问题-器件</t>
-  </si>
-  <si>
-    <t>设计问题-包装</t>
-  </si>
-  <si>
-    <t>设计问题-治具</t>
-  </si>
-  <si>
-    <t>制程问题</t>
-  </si>
-  <si>
-    <t>制程问题-SMT</t>
-  </si>
-  <si>
-    <t>制程问题-DIP</t>
-  </si>
-  <si>
-    <t>制程问题-工艺</t>
-  </si>
-  <si>
-    <t>制程问题-设备</t>
-  </si>
-  <si>
-    <t>制程问题-装配</t>
-  </si>
-  <si>
-    <t>制程问题-包装</t>
-  </si>
-  <si>
-    <t>制程问题-测试</t>
-  </si>
-  <si>
-    <t>制程问题-治具</t>
-  </si>
-  <si>
-    <t>制程问题-作业</t>
-  </si>
-  <si>
-    <t>制程问题-管理</t>
-  </si>
-  <si>
-    <t>物料问题</t>
-  </si>
-  <si>
-    <t>物料问题-来料</t>
-  </si>
-  <si>
-    <t>物料问题-现场</t>
-  </si>
-  <si>
-    <t>物料问题-仓储</t>
-  </si>
-  <si>
-    <t>其它问题</t>
-  </si>
-  <si>
-    <t>问题类别：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -649,7 +682,7 @@
   <dimension ref="A2:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -661,7 +694,7 @@
     <col min="5" max="5" width="8.125" customWidth="1"/>
     <col min="6" max="6" width="35.5" customWidth="1"/>
     <col min="7" max="7" width="18.5" customWidth="1"/>
-    <col min="8" max="8" width="18.625" customWidth="1"/>
+    <col min="8" max="8" width="25.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -672,26 +705,26 @@
         <v>3</v>
       </c>
       <c r="H2" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="2" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="1" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -700,17 +733,17 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="1">
         <v>1</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -719,17 +752,17 @@
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="1">
         <v>2</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -738,17 +771,17 @@
         <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="1">
         <v>3</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -757,17 +790,17 @@
         <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="1">
         <v>4</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -776,16 +809,16 @@
         <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E8" s="1">
         <v>5</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -794,16 +827,16 @@
         <v>6</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="E9" s="1">
         <v>6</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -812,48 +845,50 @@
         <v>7</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="E10" s="1">
         <v>7</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="E11" s="1">
         <v>8</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
+      <c r="C12" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="E12" s="1">
         <v>9</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -864,10 +899,10 @@
         <v>10</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -878,10 +913,10 @@
         <v>11</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -892,21 +927,23 @@
         <v>12</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
       <c r="E16" s="1">
         <v>13</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="5:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -914,10 +951,10 @@
         <v>14</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="5:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -925,10 +962,10 @@
         <v>15</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="5:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -936,10 +973,10 @@
         <v>16</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="5:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -947,10 +984,10 @@
         <v>17</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="5:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -958,10 +995,10 @@
         <v>18</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="5:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -969,10 +1006,10 @@
         <v>19</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="5:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -980,10 +1017,10 @@
         <v>20</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="5:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -991,10 +1028,10 @@
         <v>21</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="5:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1002,10 +1039,10 @@
         <v>22</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="5:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1013,32 +1050,24 @@
         <v>23</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="5:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E27" s="1">
-        <v>22</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
       <c r="H27" s="5" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="5:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E28" s="1">
-        <v>23</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
       <c r="H28" s="5" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
